--- a/data/trans_dic/P27F_4_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P27F_4_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +521,18 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no pudo recibir consulta con algún psicólogo/a por motivos económicos cuando la necesitaba</t>
+          <t>Población que no pudo recibir consulta con algún psicólogo/a por motivos económicos cuando la necesitaba (tasa de respuesta: 99,74%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +541,22 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +568,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +613,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -561,12 +638,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>11,48%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>6,86%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3,26%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,98%</t>
         </is>
       </c>
     </row>
@@ -579,17 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 7,33</t>
+          <t>0,85; 7,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,13; 18,77</t>
+          <t>0,0; 5,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,33; 10,96</t>
+          <t>1,75; 11,04</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6,7; 18,39</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 11,11</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1,03; 6,93</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4,42; 10,94</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,51; 6,23</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>2,0; 7,41</t>
         </is>
       </c>
     </row>
@@ -611,12 +748,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>2,6%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8,99%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8,05%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>7,05%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,64%</t>
         </is>
       </c>
     </row>
@@ -629,17 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 11,11</t>
+          <t>1,81; 10,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 15,67</t>
+          <t>2,6; 12,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,22; 11,26</t>
+          <t>0,89; 6,01</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 16,3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 13,18</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 6,12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4,28; 10,91</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4,25; 10,51</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1,36; 5,04</t>
         </is>
       </c>
     </row>
@@ -661,12 +858,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>4,06%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>3,95%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>3,13%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,84%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
         </is>
       </c>
     </row>
@@ -679,17 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,95</t>
+          <t>0,88; 5,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 7,5</t>
+          <t>1,01; 6,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,2</t>
+          <t>0,0; 2,87</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 7,77</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,92; 5,39</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 7,83</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1,69; 5,09</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 4,77</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 4,15</t>
         </is>
       </c>
     </row>
@@ -706,17 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,82%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>6,7%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>5,52%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2,15%</t>
         </is>
       </c>
     </row>
@@ -729,17 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 12,23</t>
+          <t>1,53; 11,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 10,54</t>
+          <t>0,89; 5,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 9,78</t>
+          <t>0,67; 3,93</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4,12; 10,05</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1,45; 6,5</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 4,72</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3,67; 9,46</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 4,7</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 3,73</t>
         </is>
       </c>
     </row>
@@ -761,12 +1078,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>6,03%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>3,7%</t>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,71%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
         </is>
       </c>
     </row>
@@ -779,17 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,23</t>
+          <t>0,0; 3,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,63; 9,82</t>
+          <t>0,0; 3,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,02</t>
+          <t>0,0; 2,17</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,24; 9,82</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 4,41</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1,06; 5,76</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,19; 5,65</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 2,97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 3,2</t>
         </is>
       </c>
     </row>
@@ -817,6 +1194,36 @@
       <c r="E14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0,91%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1,28%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>0,53%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0,72%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,16</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 6,19</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,84</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,43</t>
         </is>
       </c>
     </row>
@@ -861,12 +1298,42 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>2,35%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>5,66%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3,43%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2,67%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
         <is>
           <t>4,2%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,9%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -879,25 +1346,65 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,32</t>
+          <t>1,79; 4,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,17</t>
+          <t>1,48; 3,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,25</t>
+          <t>0,95; 2,66</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4,27; 7,27</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2,43; 4,62</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1,9; 3,91</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3,33; 5,22</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 3,77</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,6; 2,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -906,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no pudo recibir consulta con algún psicólogo/a por motivos económicos cuando la necesitaba (tasa de respuesta: 99,74%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1159</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22835</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4292</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2202</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14868</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5450</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>2678</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>37703</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>358; 3241</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2415</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8263; 52038</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2505; 6876</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1033; 4284</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4940; 33076</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3516; 8691</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1239; 5117</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18972; 70244</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2602</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2948</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>15101</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4226</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3705</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13553</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6828</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6653</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>28654</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>902; 5177</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1247; 5917</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5175; 34862</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2312; 7659</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2006; 6062</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4778; 30917</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4147; 10567</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3996; 9888</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14759; 54726</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1371</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1822</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3779</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2190</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1466</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>28061</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>3560</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3288</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>31840</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>527; 3181</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>613; 3723</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19314</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1073; 4190</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>507; 2954</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>14077; 55711</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1928; 5793</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1710; 5510</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>17745; 57502</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>11928</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3513</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1724</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>16292</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6096</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>3030</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>28220</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>886; 6523</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>496; 3063</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>4422; 25746</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2158; 5268</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>771; 3452</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7405; 30962</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4049; 10452</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1618; 5120</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>15843; 48962</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2102</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2925</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13737</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3437</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>15839</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1761</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1648</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10722</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1572; 4764</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>196; 2067</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5481; 29786</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2033; 5242</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>468; 2723</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5638; 32289</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>9154</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>9154</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2013</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 44317</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2018</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 43897</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>8226</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>7022</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>55745</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>17144</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>10405</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>95665</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>25371</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>17427</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>151410</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>5370; 12988</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4423; 10770</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>32540; 91257</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>12933; 22021</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>7362; 14014</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>67926; 140233</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>20113; 31490</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>13537; 22689</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>111950; 204416</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>